--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/4_RealTest/RealTestResults.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/4_RealTest/RealTestResults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="115" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481B745A-A1E0-46C9-9B85-07DC5A713873}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
